--- a/api/extracted_metrics.xlsx
+++ b/api/extracted_metrics.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="772">
   <si>
     <t>#</t>
   </si>
@@ -2525,6 +2525,9 @@
   </si>
   <si>
     <t>The contemporary approach to measuring queue behaviors is to use Cumulative Flow Diagrams, or CFDs. CFDs have their roots in queuing theory. A CFD shows the amount of work in each of the defined workflow states. Density of tasks of particular type within a defined timeframe. Each task can go through different statuses such as “In Progress”, “In Code Review”, “Blocked”, “Stopped Progress”, etc. This metric shows the average time spent in each of these statuses.</t>
+  </si>
+  <si>
+    <t>WIP is defined as the number of work items in progress, independent of whatever intermediate states on the board the items actually are in. Work in progress : Variability in time</t>
   </si>
   <si>
     <t>This metric shows the tasks with most time spent in statuses where there is an active work being done (like “In Progress”) and most time spent in statuses where there is no active work being done (like “Stopped Progress”). Given the number of tasks finished, this metric shows how many of them were stopped or blocked at some point during the development and how many were not. Hours that do not produce a tangible outcome</t>
@@ -13899,353 +13902,353 @@
       <c r="A47" s="31" t="s">
         <v>453</v>
       </c>
-      <c r="B47" s="28" t="s">
-        <v>455</v>
+      <c r="B47" s="40" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="31" t="s">
-        <v>453</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>457</v>
+      <c r="A48" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="25" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="25" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="25" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="25" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="25" t="s">
-        <v>486</v>
+      <c r="A53" s="31" t="s">
+        <v>491</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>760</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="31" t="s">
-        <v>491</v>
+      <c r="A54" s="25" t="s">
+        <v>493</v>
       </c>
       <c r="B54" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="B55" s="40" t="s">
-        <v>24</v>
+      <c r="A55" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="31" t="s">
-        <v>495</v>
+      <c r="A56" s="25" t="s">
+        <v>497</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="25" t="s">
-        <v>497</v>
-      </c>
+      <c r="A57" s="41"/>
       <c r="B57" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="41"/>
-      <c r="B58" s="28" t="s">
-        <v>499</v>
+      <c r="A58" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="31" t="s">
-        <v>500</v>
+      <c r="A59" s="25" t="s">
+        <v>501</v>
       </c>
       <c r="B59" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="B60" s="40" t="s">
-        <v>24</v>
+      <c r="A60" s="42"/>
+      <c r="B60" s="28" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="42"/>
-      <c r="B61" s="28" t="s">
-        <v>504</v>
+      <c r="A61" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="25" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="25" t="s">
-        <v>513</v>
+      <c r="A63" s="31" t="s">
+        <v>519</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>762</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="31" t="s">
-        <v>519</v>
+      <c r="A64" s="25" t="s">
+        <v>520</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>24</v>
+        <v>764</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="25" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="25" t="s">
-        <v>525</v>
+      <c r="A66" s="31" t="s">
+        <v>537</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>764</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="B67" s="40" t="s">
-        <v>24</v>
+        <v>538</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>540</v>
+        <v>541</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="31" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B69" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="31" t="s">
-        <v>542</v>
-      </c>
-      <c r="B70" s="40" t="s">
-        <v>24</v>
+      <c r="A70" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>545</v>
+        <v>550</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="B72" s="40" t="s">
-        <v>765</v>
+      <c r="A72" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="31" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="31" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="31" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="31" t="s">
-        <v>564</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>566</v>
+      <c r="A76" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="25" t="s">
-        <v>567</v>
-      </c>
-      <c r="B77" s="40" t="s">
-        <v>766</v>
+      <c r="A77" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="31" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="31" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="31" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="31" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="31" t="s">
-        <v>582</v>
+      <c r="A82" s="25" t="s">
+        <v>584</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="25" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="25" t="s">
-        <v>589</v>
+      <c r="A84" s="31" t="s">
+        <v>595</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="31" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="31" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="31" t="s">
-        <v>599</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>600</v>
+      <c r="A87" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="B87" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="B88" s="40" t="s">
-        <v>24</v>
+        <v>603</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="25" t="s">
-        <v>603</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>606</v>
+        <v>607</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="25" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>767</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="25" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B91" s="40" t="s">
         <v>24</v>
@@ -14253,7 +14256,7 @@
     </row>
     <row r="92">
       <c r="A92" s="25" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B92" s="40" t="s">
         <v>24</v>
@@ -14261,7 +14264,7 @@
     </row>
     <row r="93">
       <c r="A93" s="25" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B93" s="40" t="s">
         <v>24</v>
@@ -14269,39 +14272,39 @@
     </row>
     <row r="94">
       <c r="A94" s="25" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B94" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="25" t="s">
-        <v>624</v>
+      <c r="A95" s="31" t="s">
+        <v>625</v>
       </c>
       <c r="B95" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="31" t="s">
-        <v>625</v>
+      <c r="A96" s="25" t="s">
+        <v>626</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>24</v>
+        <v>769</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="25" t="s">
-        <v>626</v>
+      <c r="A97" s="31" t="s">
+        <v>635</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>768</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="31" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B98" s="40" t="s">
         <v>24</v>
@@ -14309,31 +14312,31 @@
     </row>
     <row r="99">
       <c r="A99" s="31" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B99" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="31" t="s">
-        <v>637</v>
-      </c>
-      <c r="B100" s="40" t="s">
-        <v>24</v>
+      <c r="A100" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="B100" s="28" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>640</v>
+      <c r="A101" s="31" t="s">
+        <v>644</v>
+      </c>
+      <c r="B101" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="31" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B102" s="40" t="s">
         <v>24</v>
@@ -14341,295 +14344,290 @@
     </row>
     <row r="103">
       <c r="A103" s="31" t="s">
-        <v>645</v>
-      </c>
-      <c r="B103" s="40" t="s">
-        <v>24</v>
+        <v>646</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="31" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="31" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="31" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="31" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="31" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="31" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="31" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="31" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="31" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="31" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="31" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="31" t="s">
-        <v>669</v>
+      <c r="A115" s="25" t="s">
+        <v>672</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="25" t="s">
-        <v>672</v>
-      </c>
+      <c r="A116" s="41"/>
       <c r="B116" s="28" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="41"/>
+      <c r="A117" s="31" t="s">
+        <v>676</v>
+      </c>
       <c r="B117" s="28" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="31" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="31" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="31" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="31" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="31" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="31" t="s">
-        <v>688</v>
-      </c>
-      <c r="B123" s="28" t="s">
-        <v>690</v>
+        <v>691</v>
+      </c>
+      <c r="B123" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="31" t="s">
-        <v>691</v>
-      </c>
-      <c r="B124" s="40" t="s">
-        <v>24</v>
+        <v>692</v>
+      </c>
+      <c r="B124" s="28" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="31" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="31" t="s">
-        <v>694</v>
-      </c>
-      <c r="B126" s="28" t="s">
-        <v>695</v>
+        <v>696</v>
+      </c>
+      <c r="B126" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="31" t="s">
-        <v>696</v>
-      </c>
-      <c r="B127" s="40" t="s">
-        <v>24</v>
+      <c r="A127" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="B127" s="28" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="25" t="s">
-        <v>698</v>
-      </c>
+      <c r="A128" s="41"/>
       <c r="B128" s="28" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="41"/>
-      <c r="B129" s="28" t="s">
-        <v>702</v>
+      <c r="A129" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="B129" s="40" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="25" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="25" t="s">
-        <v>715</v>
-      </c>
-      <c r="B131" s="40" t="s">
-        <v>770</v>
+      <c r="A131" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="B131" s="28" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="31" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="31" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="31" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="31" t="s">
-        <v>727</v>
-      </c>
-      <c r="B135" s="28" t="s">
-        <v>729</v>
+        <v>730</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="31" t="s">
-        <v>730</v>
-      </c>
-      <c r="B136" s="40" t="s">
-        <v>24</v>
+        <v>731</v>
+      </c>
+      <c r="B136" s="28" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="31" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B137" s="28" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="31" t="s">
-        <v>733</v>
-      </c>
-      <c r="B138" s="28" t="s">
-        <v>735</v>
-      </c>
+      <c r="A138" s="33"/>
+      <c r="B138" s="43"/>
     </row>
     <row r="139">
-      <c r="A139" s="33"/>
-      <c r="B139" s="43"/>
+      <c r="A139" s="38"/>
+      <c r="B139" s="44"/>
     </row>
     <row r="140">
-      <c r="A140" s="38"/>
-      <c r="B140" s="44"/>
+      <c r="B140" s="45"/>
     </row>
     <row r="141">
       <c r="B141" s="45"/>
@@ -16664,9 +16662,6 @@
     </row>
     <row r="818">
       <c r="B818" s="45"/>
-    </row>
-    <row r="819">
-      <c r="B819" s="45"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/api/extracted_metrics.xlsx
+++ b/api/extracted_metrics.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="773">
   <si>
     <t>#</t>
   </si>
@@ -2555,6 +2555,12 @@
 Relative Schedule Deviation metric but from cost
 prospective. 
 ((Real costs - Planned costs) / Planned costs) x 100</t>
+  </si>
+  <si>
+    <t>The assessed quality rating Quality of product and service
+Pre-release defect density = Pre-release test defects / KLOC
+Defect removal efficiency = Pre-release test defects / (pre-release defects + post-
+release defects)</t>
   </si>
   <si>
     <t>Cost originated from DEP
@@ -2771,7 +2777,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2880,9 +2886,6 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -13974,81 +13977,85 @@
       <c r="A56" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="B56" s="28" t="s">
-        <v>498</v>
+      <c r="B56" s="40" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="41"/>
-      <c r="B57" s="28" t="s">
-        <v>499</v>
+      <c r="A57" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="31" t="s">
-        <v>500</v>
+      <c r="A58" s="25" t="s">
+        <v>501</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>24</v>
+        <v>504</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="25" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>24</v>
+        <v>763</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="42"/>
-      <c r="B60" s="28" t="s">
-        <v>504</v>
+      <c r="A60" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="25" t="s">
-        <v>507</v>
+      <c r="A61" s="31" t="s">
+        <v>519</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>762</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="25" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="31" t="s">
-        <v>519</v>
+      <c r="A63" s="25" t="s">
+        <v>525</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>24</v>
+        <v>766</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="25" t="s">
-        <v>520</v>
+      <c r="A64" s="31" t="s">
+        <v>537</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>764</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="25" t="s">
-        <v>525</v>
-      </c>
-      <c r="B65" s="40" t="s">
-        <v>765</v>
+      <c r="A65" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="31" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B66" s="40" t="s">
         <v>24</v>
@@ -14056,191 +14063,191 @@
     </row>
     <row r="67">
       <c r="A67" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>540</v>
+        <v>542</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="B68" s="40" t="s">
-        <v>24</v>
+      <c r="A68" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="31" t="s">
-        <v>542</v>
+      <c r="A69" s="25" t="s">
+        <v>550</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>24</v>
+        <v>767</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="25" t="s">
-        <v>543</v>
+      <c r="A70" s="31" t="s">
+        <v>557</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="B71" s="40" t="s">
-        <v>766</v>
+      <c r="A71" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="31" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="31" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>563</v>
+      <c r="A74" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="31" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="25" t="s">
-        <v>567</v>
-      </c>
-      <c r="B76" s="40" t="s">
-        <v>767</v>
+      <c r="A76" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="31" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="31" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="31" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="31" t="s">
-        <v>580</v>
+      <c r="A80" s="25" t="s">
+        <v>584</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="31" t="s">
-        <v>582</v>
+      <c r="A81" s="25" t="s">
+        <v>589</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="25" t="s">
-        <v>584</v>
+      <c r="A82" s="31" t="s">
+        <v>595</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="25" t="s">
-        <v>589</v>
+      <c r="A83" s="31" t="s">
+        <v>597</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="31" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>598</v>
+      <c r="A85" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="31" t="s">
-        <v>599</v>
+      <c r="A86" s="25" t="s">
+        <v>603</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="25" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>24</v>
+        <v>769</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="25" t="s">
-        <v>603</v>
-      </c>
-      <c r="B88" s="28" t="s">
-        <v>606</v>
+        <v>617</v>
+      </c>
+      <c r="B88" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="25" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>768</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="25" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B90" s="40" t="s">
         <v>24</v>
@@ -14248,7 +14255,7 @@
     </row>
     <row r="91">
       <c r="A91" s="25" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B91" s="40" t="s">
         <v>24</v>
@@ -14256,15 +14263,15 @@
     </row>
     <row r="92">
       <c r="A92" s="25" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B92" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="25" t="s">
-        <v>623</v>
+      <c r="A93" s="31" t="s">
+        <v>625</v>
       </c>
       <c r="B93" s="40" t="s">
         <v>24</v>
@@ -14272,2396 +14279,2374 @@
     </row>
     <row r="94">
       <c r="A94" s="25" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>24</v>
+        <v>770</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="31" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="B95" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="25" t="s">
-        <v>626</v>
+      <c r="A96" s="31" t="s">
+        <v>636</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>769</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="31" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B97" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="31" t="s">
-        <v>636</v>
-      </c>
-      <c r="B98" s="40" t="s">
-        <v>24</v>
+      <c r="A98" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="31" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="B99" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="B100" s="28" t="s">
-        <v>640</v>
+      <c r="A100" s="31" t="s">
+        <v>645</v>
+      </c>
+      <c r="B100" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="31" t="s">
-        <v>644</v>
-      </c>
-      <c r="B101" s="40" t="s">
-        <v>24</v>
+        <v>646</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="31" t="s">
-        <v>645</v>
-      </c>
-      <c r="B102" s="40" t="s">
-        <v>24</v>
+        <v>649</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="31" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="31" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="31" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="31" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="31" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="31" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="31" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="31" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="31" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="31" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="31" t="s">
-        <v>667</v>
+      <c r="A113" s="25" t="s">
+        <v>672</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="31" t="s">
-        <v>669</v>
-      </c>
+      <c r="A114" s="41"/>
       <c r="B114" s="28" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="25" t="s">
-        <v>672</v>
+      <c r="A115" s="31" t="s">
+        <v>676</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="41"/>
+      <c r="A116" s="31" t="s">
+        <v>678</v>
+      </c>
       <c r="B116" s="28" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="31" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="31" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="31" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="31" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="31" t="s">
-        <v>686</v>
-      </c>
-      <c r="B121" s="28" t="s">
-        <v>687</v>
+        <v>691</v>
+      </c>
+      <c r="B121" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="31" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="31" t="s">
-        <v>691</v>
-      </c>
-      <c r="B123" s="40" t="s">
-        <v>24</v>
+        <v>694</v>
+      </c>
+      <c r="B123" s="28" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="31" t="s">
-        <v>692</v>
-      </c>
-      <c r="B124" s="28" t="s">
-        <v>693</v>
+        <v>696</v>
+      </c>
+      <c r="B124" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="31" t="s">
-        <v>694</v>
+      <c r="A125" s="25" t="s">
+        <v>698</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="31" t="s">
-        <v>696</v>
+      <c r="A126" s="25" t="s">
+        <v>703</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>24</v>
+        <v>771</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="25" t="s">
-        <v>698</v>
-      </c>
-      <c r="B127" s="28" t="s">
-        <v>700</v>
+        <v>715</v>
+      </c>
+      <c r="B127" s="40" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="41"/>
+      <c r="A128" s="31" t="s">
+        <v>719</v>
+      </c>
       <c r="B128" s="28" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="25" t="s">
-        <v>703</v>
-      </c>
-      <c r="B129" s="40" t="s">
-        <v>770</v>
+      <c r="A129" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="B129" s="28" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="25" t="s">
-        <v>715</v>
-      </c>
-      <c r="B130" s="40" t="s">
-        <v>771</v>
+      <c r="A130" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="B130" s="28" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="31" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="B132" s="28" t="s">
-        <v>723</v>
+        <v>730</v>
+      </c>
+      <c r="B132" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="31" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="31" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="31" t="s">
-        <v>730</v>
-      </c>
-      <c r="B135" s="40" t="s">
-        <v>24</v>
-      </c>
+      <c r="A135" s="33"/>
+      <c r="B135" s="42"/>
     </row>
     <row r="136">
-      <c r="A136" s="31" t="s">
-        <v>731</v>
-      </c>
-      <c r="B136" s="28" t="s">
-        <v>732</v>
-      </c>
+      <c r="A136" s="38"/>
+      <c r="B136" s="43"/>
     </row>
     <row r="137">
-      <c r="A137" s="31" t="s">
-        <v>733</v>
-      </c>
-      <c r="B137" s="28" t="s">
-        <v>735</v>
-      </c>
+      <c r="B137" s="44"/>
     </row>
     <row r="138">
-      <c r="A138" s="33"/>
-      <c r="B138" s="43"/>
+      <c r="B138" s="44"/>
     </row>
     <row r="139">
-      <c r="A139" s="38"/>
       <c r="B139" s="44"/>
     </row>
     <row r="140">
-      <c r="B140" s="45"/>
+      <c r="B140" s="44"/>
     </row>
     <row r="141">
-      <c r="B141" s="45"/>
+      <c r="B141" s="44"/>
     </row>
     <row r="142">
-      <c r="B142" s="45"/>
+      <c r="B142" s="44"/>
     </row>
     <row r="143">
-      <c r="B143" s="45"/>
+      <c r="B143" s="44"/>
     </row>
     <row r="144">
-      <c r="B144" s="45"/>
+      <c r="B144" s="44"/>
     </row>
     <row r="145">
-      <c r="B145" s="45"/>
+      <c r="B145" s="44"/>
     </row>
     <row r="146">
-      <c r="B146" s="45"/>
+      <c r="B146" s="44"/>
     </row>
     <row r="147">
-      <c r="B147" s="45"/>
+      <c r="B147" s="44"/>
     </row>
     <row r="148">
-      <c r="B148" s="45"/>
+      <c r="B148" s="44"/>
     </row>
     <row r="149">
-      <c r="B149" s="45"/>
+      <c r="B149" s="44"/>
     </row>
     <row r="150">
-      <c r="B150" s="45"/>
+      <c r="B150" s="44"/>
     </row>
     <row r="151">
-      <c r="B151" s="45"/>
+      <c r="B151" s="44"/>
     </row>
     <row r="152">
-      <c r="B152" s="45"/>
+      <c r="B152" s="44"/>
     </row>
     <row r="153">
-      <c r="B153" s="45"/>
+      <c r="B153" s="44"/>
     </row>
     <row r="154">
-      <c r="B154" s="45"/>
+      <c r="B154" s="44"/>
     </row>
     <row r="155">
-      <c r="B155" s="45"/>
+      <c r="B155" s="44"/>
     </row>
     <row r="156">
-      <c r="B156" s="45"/>
+      <c r="B156" s="44"/>
     </row>
     <row r="157">
-      <c r="B157" s="45"/>
+      <c r="B157" s="44"/>
     </row>
     <row r="158">
-      <c r="B158" s="45"/>
+      <c r="B158" s="44"/>
     </row>
     <row r="159">
-      <c r="B159" s="45"/>
+      <c r="B159" s="44"/>
     </row>
     <row r="160">
-      <c r="B160" s="45"/>
+      <c r="B160" s="44"/>
     </row>
     <row r="161">
-      <c r="B161" s="45"/>
+      <c r="B161" s="44"/>
     </row>
     <row r="162">
-      <c r="B162" s="45"/>
+      <c r="B162" s="44"/>
     </row>
     <row r="163">
-      <c r="B163" s="45"/>
+      <c r="B163" s="44"/>
     </row>
     <row r="164">
-      <c r="B164" s="45"/>
+      <c r="B164" s="44"/>
     </row>
     <row r="165">
-      <c r="B165" s="45"/>
+      <c r="B165" s="44"/>
     </row>
     <row r="166">
-      <c r="B166" s="45"/>
+      <c r="B166" s="44"/>
     </row>
     <row r="167">
-      <c r="B167" s="45"/>
+      <c r="B167" s="44"/>
     </row>
     <row r="168">
-      <c r="B168" s="45"/>
+      <c r="B168" s="44"/>
     </row>
     <row r="169">
-      <c r="B169" s="45"/>
+      <c r="B169" s="44"/>
     </row>
     <row r="170">
-      <c r="B170" s="45"/>
+      <c r="B170" s="44"/>
     </row>
     <row r="171">
-      <c r="B171" s="45"/>
+      <c r="B171" s="44"/>
     </row>
     <row r="172">
-      <c r="B172" s="45"/>
+      <c r="B172" s="44"/>
     </row>
     <row r="173">
-      <c r="B173" s="45"/>
+      <c r="B173" s="44"/>
     </row>
     <row r="174">
-      <c r="B174" s="45"/>
+      <c r="B174" s="44"/>
     </row>
     <row r="175">
-      <c r="B175" s="45"/>
+      <c r="B175" s="44"/>
     </row>
     <row r="176">
-      <c r="B176" s="45"/>
+      <c r="B176" s="44"/>
     </row>
     <row r="177">
-      <c r="B177" s="45"/>
+      <c r="B177" s="44"/>
     </row>
     <row r="178">
-      <c r="B178" s="45"/>
+      <c r="B178" s="44"/>
     </row>
     <row r="179">
-      <c r="B179" s="45"/>
+      <c r="B179" s="44"/>
     </row>
     <row r="180">
-      <c r="B180" s="45"/>
+      <c r="B180" s="44"/>
     </row>
     <row r="181">
-      <c r="B181" s="45"/>
+      <c r="B181" s="44"/>
     </row>
     <row r="182">
-      <c r="B182" s="45"/>
+      <c r="B182" s="44"/>
     </row>
     <row r="183">
-      <c r="B183" s="45"/>
+      <c r="B183" s="44"/>
     </row>
     <row r="184">
-      <c r="B184" s="45"/>
+      <c r="B184" s="44"/>
     </row>
     <row r="185">
-      <c r="B185" s="45"/>
+      <c r="B185" s="44"/>
     </row>
     <row r="186">
-      <c r="B186" s="45"/>
+      <c r="B186" s="44"/>
     </row>
     <row r="187">
-      <c r="B187" s="45"/>
+      <c r="B187" s="44"/>
     </row>
     <row r="188">
-      <c r="B188" s="45"/>
+      <c r="B188" s="44"/>
     </row>
     <row r="189">
-      <c r="B189" s="45"/>
+      <c r="B189" s="44"/>
     </row>
     <row r="190">
-      <c r="B190" s="45"/>
+      <c r="B190" s="44"/>
     </row>
     <row r="191">
-      <c r="B191" s="45"/>
+      <c r="B191" s="44"/>
     </row>
     <row r="192">
-      <c r="B192" s="45"/>
+      <c r="B192" s="44"/>
     </row>
     <row r="193">
-      <c r="B193" s="45"/>
+      <c r="B193" s="44"/>
     </row>
     <row r="194">
-      <c r="B194" s="45"/>
+      <c r="B194" s="44"/>
     </row>
     <row r="195">
-      <c r="B195" s="45"/>
+      <c r="B195" s="44"/>
     </row>
     <row r="196">
-      <c r="B196" s="45"/>
+      <c r="B196" s="44"/>
     </row>
     <row r="197">
-      <c r="B197" s="45"/>
+      <c r="B197" s="44"/>
     </row>
     <row r="198">
-      <c r="B198" s="45"/>
+      <c r="B198" s="44"/>
     </row>
     <row r="199">
-      <c r="B199" s="45"/>
+      <c r="B199" s="44"/>
     </row>
     <row r="200">
-      <c r="B200" s="45"/>
+      <c r="B200" s="44"/>
     </row>
     <row r="201">
-      <c r="B201" s="45"/>
+      <c r="B201" s="44"/>
     </row>
     <row r="202">
-      <c r="B202" s="45"/>
+      <c r="B202" s="44"/>
     </row>
     <row r="203">
-      <c r="B203" s="45"/>
+      <c r="B203" s="44"/>
     </row>
     <row r="204">
-      <c r="B204" s="45"/>
+      <c r="B204" s="44"/>
     </row>
     <row r="205">
-      <c r="B205" s="45"/>
+      <c r="B205" s="44"/>
     </row>
     <row r="206">
-      <c r="B206" s="45"/>
+      <c r="B206" s="44"/>
     </row>
     <row r="207">
-      <c r="B207" s="45"/>
+      <c r="B207" s="44"/>
     </row>
     <row r="208">
-      <c r="B208" s="45"/>
+      <c r="B208" s="44"/>
     </row>
     <row r="209">
-      <c r="B209" s="45"/>
+      <c r="B209" s="44"/>
     </row>
     <row r="210">
-      <c r="B210" s="45"/>
+      <c r="B210" s="44"/>
     </row>
     <row r="211">
-      <c r="B211" s="45"/>
+      <c r="B211" s="44"/>
     </row>
     <row r="212">
-      <c r="B212" s="45"/>
+      <c r="B212" s="44"/>
     </row>
     <row r="213">
-      <c r="B213" s="45"/>
+      <c r="B213" s="44"/>
     </row>
     <row r="214">
-      <c r="B214" s="45"/>
+      <c r="B214" s="44"/>
     </row>
     <row r="215">
-      <c r="B215" s="45"/>
+      <c r="B215" s="44"/>
     </row>
     <row r="216">
-      <c r="B216" s="45"/>
+      <c r="B216" s="44"/>
     </row>
     <row r="217">
-      <c r="B217" s="45"/>
+      <c r="B217" s="44"/>
     </row>
     <row r="218">
-      <c r="B218" s="45"/>
+      <c r="B218" s="44"/>
     </row>
     <row r="219">
-      <c r="B219" s="45"/>
+      <c r="B219" s="44"/>
     </row>
     <row r="220">
-      <c r="B220" s="45"/>
+      <c r="B220" s="44"/>
     </row>
     <row r="221">
-      <c r="B221" s="45"/>
+      <c r="B221" s="44"/>
     </row>
     <row r="222">
-      <c r="B222" s="45"/>
+      <c r="B222" s="44"/>
     </row>
     <row r="223">
-      <c r="B223" s="45"/>
+      <c r="B223" s="44"/>
     </row>
     <row r="224">
-      <c r="B224" s="45"/>
+      <c r="B224" s="44"/>
     </row>
     <row r="225">
-      <c r="B225" s="45"/>
+      <c r="B225" s="44"/>
     </row>
     <row r="226">
-      <c r="B226" s="45"/>
+      <c r="B226" s="44"/>
     </row>
     <row r="227">
-      <c r="B227" s="45"/>
+      <c r="B227" s="44"/>
     </row>
     <row r="228">
-      <c r="B228" s="45"/>
+      <c r="B228" s="44"/>
     </row>
     <row r="229">
-      <c r="B229" s="45"/>
+      <c r="B229" s="44"/>
     </row>
     <row r="230">
-      <c r="B230" s="45"/>
+      <c r="B230" s="44"/>
     </row>
     <row r="231">
-      <c r="B231" s="45"/>
+      <c r="B231" s="44"/>
     </row>
     <row r="232">
-      <c r="B232" s="45"/>
+      <c r="B232" s="44"/>
     </row>
     <row r="233">
-      <c r="B233" s="45"/>
+      <c r="B233" s="44"/>
     </row>
     <row r="234">
-      <c r="B234" s="45"/>
+      <c r="B234" s="44"/>
     </row>
     <row r="235">
-      <c r="B235" s="45"/>
+      <c r="B235" s="44"/>
     </row>
     <row r="236">
-      <c r="B236" s="45"/>
+      <c r="B236" s="44"/>
     </row>
     <row r="237">
-      <c r="B237" s="45"/>
+      <c r="B237" s="44"/>
     </row>
     <row r="238">
-      <c r="B238" s="45"/>
+      <c r="B238" s="44"/>
     </row>
     <row r="239">
-      <c r="B239" s="45"/>
+      <c r="B239" s="44"/>
     </row>
     <row r="240">
-      <c r="B240" s="45"/>
+      <c r="B240" s="44"/>
     </row>
     <row r="241">
-      <c r="B241" s="45"/>
+      <c r="B241" s="44"/>
     </row>
     <row r="242">
-      <c r="B242" s="45"/>
+      <c r="B242" s="44"/>
     </row>
     <row r="243">
-      <c r="B243" s="45"/>
+      <c r="B243" s="44"/>
     </row>
     <row r="244">
-      <c r="B244" s="45"/>
+      <c r="B244" s="44"/>
     </row>
     <row r="245">
-      <c r="B245" s="45"/>
+      <c r="B245" s="44"/>
     </row>
     <row r="246">
-      <c r="B246" s="45"/>
+      <c r="B246" s="44"/>
     </row>
     <row r="247">
-      <c r="B247" s="45"/>
+      <c r="B247" s="44"/>
     </row>
     <row r="248">
-      <c r="B248" s="45"/>
+      <c r="B248" s="44"/>
     </row>
     <row r="249">
-      <c r="B249" s="45"/>
+      <c r="B249" s="44"/>
     </row>
     <row r="250">
-      <c r="B250" s="45"/>
+      <c r="B250" s="44"/>
     </row>
     <row r="251">
-      <c r="B251" s="45"/>
+      <c r="B251" s="44"/>
     </row>
     <row r="252">
-      <c r="B252" s="45"/>
+      <c r="B252" s="44"/>
     </row>
     <row r="253">
-      <c r="B253" s="45"/>
+      <c r="B253" s="44"/>
     </row>
     <row r="254">
-      <c r="B254" s="45"/>
+      <c r="B254" s="44"/>
     </row>
     <row r="255">
-      <c r="B255" s="45"/>
+      <c r="B255" s="44"/>
     </row>
     <row r="256">
-      <c r="B256" s="45"/>
+      <c r="B256" s="44"/>
     </row>
     <row r="257">
-      <c r="B257" s="45"/>
+      <c r="B257" s="44"/>
     </row>
     <row r="258">
-      <c r="B258" s="45"/>
+      <c r="B258" s="44"/>
     </row>
     <row r="259">
-      <c r="B259" s="45"/>
+      <c r="B259" s="44"/>
     </row>
     <row r="260">
-      <c r="B260" s="45"/>
+      <c r="B260" s="44"/>
     </row>
     <row r="261">
-      <c r="B261" s="45"/>
+      <c r="B261" s="44"/>
     </row>
     <row r="262">
-      <c r="B262" s="45"/>
+      <c r="B262" s="44"/>
     </row>
     <row r="263">
-      <c r="B263" s="45"/>
+      <c r="B263" s="44"/>
     </row>
     <row r="264">
-      <c r="B264" s="45"/>
+      <c r="B264" s="44"/>
     </row>
     <row r="265">
-      <c r="B265" s="45"/>
+      <c r="B265" s="44"/>
     </row>
     <row r="266">
-      <c r="B266" s="45"/>
+      <c r="B266" s="44"/>
     </row>
     <row r="267">
-      <c r="B267" s="45"/>
+      <c r="B267" s="44"/>
     </row>
     <row r="268">
-      <c r="B268" s="45"/>
+      <c r="B268" s="44"/>
     </row>
     <row r="269">
-      <c r="B269" s="45"/>
+      <c r="B269" s="44"/>
     </row>
     <row r="270">
-      <c r="B270" s="45"/>
+      <c r="B270" s="44"/>
     </row>
     <row r="271">
-      <c r="B271" s="45"/>
+      <c r="B271" s="44"/>
     </row>
     <row r="272">
-      <c r="B272" s="45"/>
+      <c r="B272" s="44"/>
     </row>
     <row r="273">
-      <c r="B273" s="45"/>
+      <c r="B273" s="44"/>
     </row>
     <row r="274">
-      <c r="B274" s="45"/>
+      <c r="B274" s="44"/>
     </row>
     <row r="275">
-      <c r="B275" s="45"/>
+      <c r="B275" s="44"/>
     </row>
     <row r="276">
-      <c r="B276" s="45"/>
+      <c r="B276" s="44"/>
     </row>
     <row r="277">
-      <c r="B277" s="45"/>
+      <c r="B277" s="44"/>
     </row>
     <row r="278">
-      <c r="B278" s="45"/>
+      <c r="B278" s="44"/>
     </row>
     <row r="279">
-      <c r="B279" s="45"/>
+      <c r="B279" s="44"/>
     </row>
     <row r="280">
-      <c r="B280" s="45"/>
+      <c r="B280" s="44"/>
     </row>
     <row r="281">
-      <c r="B281" s="45"/>
+      <c r="B281" s="44"/>
     </row>
     <row r="282">
-      <c r="B282" s="45"/>
+      <c r="B282" s="44"/>
     </row>
     <row r="283">
-      <c r="B283" s="45"/>
+      <c r="B283" s="44"/>
     </row>
     <row r="284">
-      <c r="B284" s="45"/>
+      <c r="B284" s="44"/>
     </row>
     <row r="285">
-      <c r="B285" s="45"/>
+      <c r="B285" s="44"/>
     </row>
     <row r="286">
-      <c r="B286" s="45"/>
+      <c r="B286" s="44"/>
     </row>
     <row r="287">
-      <c r="B287" s="45"/>
+      <c r="B287" s="44"/>
     </row>
     <row r="288">
-      <c r="B288" s="45"/>
+      <c r="B288" s="44"/>
     </row>
     <row r="289">
-      <c r="B289" s="45"/>
+      <c r="B289" s="44"/>
     </row>
     <row r="290">
-      <c r="B290" s="45"/>
+      <c r="B290" s="44"/>
     </row>
     <row r="291">
-      <c r="B291" s="45"/>
+      <c r="B291" s="44"/>
     </row>
     <row r="292">
-      <c r="B292" s="45"/>
+      <c r="B292" s="44"/>
     </row>
     <row r="293">
-      <c r="B293" s="45"/>
+      <c r="B293" s="44"/>
     </row>
     <row r="294">
-      <c r="B294" s="45"/>
+      <c r="B294" s="44"/>
     </row>
     <row r="295">
-      <c r="B295" s="45"/>
+      <c r="B295" s="44"/>
     </row>
     <row r="296">
-      <c r="B296" s="45"/>
+      <c r="B296" s="44"/>
     </row>
     <row r="297">
-      <c r="B297" s="45"/>
+      <c r="B297" s="44"/>
     </row>
     <row r="298">
-      <c r="B298" s="45"/>
+      <c r="B298" s="44"/>
     </row>
     <row r="299">
-      <c r="B299" s="45"/>
+      <c r="B299" s="44"/>
     </row>
     <row r="300">
-      <c r="B300" s="45"/>
+      <c r="B300" s="44"/>
     </row>
     <row r="301">
-      <c r="B301" s="45"/>
+      <c r="B301" s="44"/>
     </row>
     <row r="302">
-      <c r="B302" s="45"/>
+      <c r="B302" s="44"/>
     </row>
     <row r="303">
-      <c r="B303" s="45"/>
+      <c r="B303" s="44"/>
     </row>
     <row r="304">
-      <c r="B304" s="45"/>
+      <c r="B304" s="44"/>
     </row>
     <row r="305">
-      <c r="B305" s="45"/>
+      <c r="B305" s="44"/>
     </row>
     <row r="306">
-      <c r="B306" s="45"/>
+      <c r="B306" s="44"/>
     </row>
     <row r="307">
-      <c r="B307" s="45"/>
+      <c r="B307" s="44"/>
     </row>
     <row r="308">
-      <c r="B308" s="45"/>
+      <c r="B308" s="44"/>
     </row>
     <row r="309">
-      <c r="B309" s="45"/>
+      <c r="B309" s="44"/>
     </row>
     <row r="310">
-      <c r="B310" s="45"/>
+      <c r="B310" s="44"/>
     </row>
     <row r="311">
-      <c r="B311" s="45"/>
+      <c r="B311" s="44"/>
     </row>
     <row r="312">
-      <c r="B312" s="45"/>
+      <c r="B312" s="44"/>
     </row>
     <row r="313">
-      <c r="B313" s="45"/>
+      <c r="B313" s="44"/>
     </row>
     <row r="314">
-      <c r="B314" s="45"/>
+      <c r="B314" s="44"/>
     </row>
     <row r="315">
-      <c r="B315" s="45"/>
+      <c r="B315" s="44"/>
     </row>
     <row r="316">
-      <c r="B316" s="45"/>
+      <c r="B316" s="44"/>
     </row>
     <row r="317">
-      <c r="B317" s="45"/>
+      <c r="B317" s="44"/>
     </row>
     <row r="318">
-      <c r="B318" s="45"/>
+      <c r="B318" s="44"/>
     </row>
     <row r="319">
-      <c r="B319" s="45"/>
+      <c r="B319" s="44"/>
     </row>
     <row r="320">
-      <c r="B320" s="45"/>
+      <c r="B320" s="44"/>
     </row>
     <row r="321">
-      <c r="B321" s="45"/>
+      <c r="B321" s="44"/>
     </row>
     <row r="322">
-      <c r="B322" s="45"/>
+      <c r="B322" s="44"/>
     </row>
     <row r="323">
-      <c r="B323" s="45"/>
+      <c r="B323" s="44"/>
     </row>
     <row r="324">
-      <c r="B324" s="45"/>
+      <c r="B324" s="44"/>
     </row>
     <row r="325">
-      <c r="B325" s="45"/>
+      <c r="B325" s="44"/>
     </row>
     <row r="326">
-      <c r="B326" s="45"/>
+      <c r="B326" s="44"/>
     </row>
     <row r="327">
-      <c r="B327" s="45"/>
+      <c r="B327" s="44"/>
     </row>
     <row r="328">
-      <c r="B328" s="45"/>
+      <c r="B328" s="44"/>
     </row>
     <row r="329">
-      <c r="B329" s="45"/>
+      <c r="B329" s="44"/>
     </row>
     <row r="330">
-      <c r="B330" s="45"/>
+      <c r="B330" s="44"/>
     </row>
     <row r="331">
-      <c r="B331" s="45"/>
+      <c r="B331" s="44"/>
     </row>
     <row r="332">
-      <c r="B332" s="45"/>
+      <c r="B332" s="44"/>
     </row>
     <row r="333">
-      <c r="B333" s="45"/>
+      <c r="B333" s="44"/>
     </row>
     <row r="334">
-      <c r="B334" s="45"/>
+      <c r="B334" s="44"/>
     </row>
     <row r="335">
-      <c r="B335" s="45"/>
+      <c r="B335" s="44"/>
     </row>
     <row r="336">
-      <c r="B336" s="45"/>
+      <c r="B336" s="44"/>
     </row>
     <row r="337">
-      <c r="B337" s="45"/>
+      <c r="B337" s="44"/>
     </row>
     <row r="338">
-      <c r="B338" s="45"/>
+      <c r="B338" s="44"/>
     </row>
     <row r="339">
-      <c r="B339" s="45"/>
+      <c r="B339" s="44"/>
     </row>
     <row r="340">
-      <c r="B340" s="45"/>
+      <c r="B340" s="44"/>
     </row>
     <row r="341">
-      <c r="B341" s="45"/>
+      <c r="B341" s="44"/>
     </row>
     <row r="342">
-      <c r="B342" s="45"/>
+      <c r="B342" s="44"/>
     </row>
     <row r="343">
-      <c r="B343" s="45"/>
+      <c r="B343" s="44"/>
     </row>
     <row r="344">
-      <c r="B344" s="45"/>
+      <c r="B344" s="44"/>
     </row>
     <row r="345">
-      <c r="B345" s="45"/>
+      <c r="B345" s="44"/>
     </row>
     <row r="346">
-      <c r="B346" s="45"/>
+      <c r="B346" s="44"/>
     </row>
     <row r="347">
-      <c r="B347" s="45"/>
+      <c r="B347" s="44"/>
     </row>
     <row r="348">
-      <c r="B348" s="45"/>
+      <c r="B348" s="44"/>
     </row>
     <row r="349">
-      <c r="B349" s="45"/>
+      <c r="B349" s="44"/>
     </row>
     <row r="350">
-      <c r="B350" s="45"/>
+      <c r="B350" s="44"/>
     </row>
     <row r="351">
-      <c r="B351" s="45"/>
+      <c r="B351" s="44"/>
     </row>
     <row r="352">
-      <c r="B352" s="45"/>
+      <c r="B352" s="44"/>
     </row>
     <row r="353">
-      <c r="B353" s="45"/>
+      <c r="B353" s="44"/>
     </row>
     <row r="354">
-      <c r="B354" s="45"/>
+      <c r="B354" s="44"/>
     </row>
     <row r="355">
-      <c r="B355" s="45"/>
+      <c r="B355" s="44"/>
     </row>
     <row r="356">
-      <c r="B356" s="45"/>
+      <c r="B356" s="44"/>
     </row>
     <row r="357">
-      <c r="B357" s="45"/>
+      <c r="B357" s="44"/>
     </row>
     <row r="358">
-      <c r="B358" s="45"/>
+      <c r="B358" s="44"/>
     </row>
     <row r="359">
-      <c r="B359" s="45"/>
+      <c r="B359" s="44"/>
     </row>
     <row r="360">
-      <c r="B360" s="45"/>
+      <c r="B360" s="44"/>
     </row>
     <row r="361">
-      <c r="B361" s="45"/>
+      <c r="B361" s="44"/>
     </row>
     <row r="362">
-      <c r="B362" s="45"/>
+      <c r="B362" s="44"/>
     </row>
     <row r="363">
-      <c r="B363" s="45"/>
+      <c r="B363" s="44"/>
     </row>
     <row r="364">
-      <c r="B364" s="45"/>
+      <c r="B364" s="44"/>
     </row>
     <row r="365">
-      <c r="B365" s="45"/>
+      <c r="B365" s="44"/>
     </row>
     <row r="366">
-      <c r="B366" s="45"/>
+      <c r="B366" s="44"/>
     </row>
     <row r="367">
-      <c r="B367" s="45"/>
+      <c r="B367" s="44"/>
     </row>
     <row r="368">
-      <c r="B368" s="45"/>
+      <c r="B368" s="44"/>
     </row>
     <row r="369">
-      <c r="B369" s="45"/>
+      <c r="B369" s="44"/>
     </row>
     <row r="370">
-      <c r="B370" s="45"/>
+      <c r="B370" s="44"/>
     </row>
     <row r="371">
-      <c r="B371" s="45"/>
+      <c r="B371" s="44"/>
     </row>
     <row r="372">
-      <c r="B372" s="45"/>
+      <c r="B372" s="44"/>
     </row>
     <row r="373">
-      <c r="B373" s="45"/>
+      <c r="B373" s="44"/>
     </row>
     <row r="374">
-      <c r="B374" s="45"/>
+      <c r="B374" s="44"/>
     </row>
     <row r="375">
-      <c r="B375" s="45"/>
+      <c r="B375" s="44"/>
     </row>
     <row r="376">
-      <c r="B376" s="45"/>
+      <c r="B376" s="44"/>
     </row>
     <row r="377">
-      <c r="B377" s="45"/>
+      <c r="B377" s="44"/>
     </row>
     <row r="378">
-      <c r="B378" s="45"/>
+      <c r="B378" s="44"/>
     </row>
     <row r="379">
-      <c r="B379" s="45"/>
+      <c r="B379" s="44"/>
     </row>
     <row r="380">
-      <c r="B380" s="45"/>
+      <c r="B380" s="44"/>
     </row>
     <row r="381">
-      <c r="B381" s="45"/>
+      <c r="B381" s="44"/>
     </row>
     <row r="382">
-      <c r="B382" s="45"/>
+      <c r="B382" s="44"/>
     </row>
     <row r="383">
-      <c r="B383" s="45"/>
+      <c r="B383" s="44"/>
     </row>
     <row r="384">
-      <c r="B384" s="45"/>
+      <c r="B384" s="44"/>
     </row>
     <row r="385">
-      <c r="B385" s="45"/>
+      <c r="B385" s="44"/>
     </row>
     <row r="386">
-      <c r="B386" s="45"/>
+      <c r="B386" s="44"/>
     </row>
     <row r="387">
-      <c r="B387" s="45"/>
+      <c r="B387" s="44"/>
     </row>
     <row r="388">
-      <c r="B388" s="45"/>
+      <c r="B388" s="44"/>
     </row>
     <row r="389">
-      <c r="B389" s="45"/>
+      <c r="B389" s="44"/>
     </row>
     <row r="390">
-      <c r="B390" s="45"/>
+      <c r="B390" s="44"/>
     </row>
     <row r="391">
-      <c r="B391" s="45"/>
+      <c r="B391" s="44"/>
     </row>
     <row r="392">
-      <c r="B392" s="45"/>
+      <c r="B392" s="44"/>
     </row>
     <row r="393">
-      <c r="B393" s="45"/>
+      <c r="B393" s="44"/>
     </row>
     <row r="394">
-      <c r="B394" s="45"/>
+      <c r="B394" s="44"/>
     </row>
     <row r="395">
-      <c r="B395" s="45"/>
+      <c r="B395" s="44"/>
     </row>
     <row r="396">
-      <c r="B396" s="45"/>
+      <c r="B396" s="44"/>
     </row>
     <row r="397">
-      <c r="B397" s="45"/>
+      <c r="B397" s="44"/>
     </row>
     <row r="398">
-      <c r="B398" s="45"/>
+      <c r="B398" s="44"/>
     </row>
     <row r="399">
-      <c r="B399" s="45"/>
+      <c r="B399" s="44"/>
     </row>
     <row r="400">
-      <c r="B400" s="45"/>
+      <c r="B400" s="44"/>
     </row>
     <row r="401">
-      <c r="B401" s="45"/>
+      <c r="B401" s="44"/>
     </row>
     <row r="402">
-      <c r="B402" s="45"/>
+      <c r="B402" s="44"/>
     </row>
     <row r="403">
-      <c r="B403" s="45"/>
+      <c r="B403" s="44"/>
     </row>
     <row r="404">
-      <c r="B404" s="45"/>
+      <c r="B404" s="44"/>
     </row>
     <row r="405">
-      <c r="B405" s="45"/>
+      <c r="B405" s="44"/>
     </row>
     <row r="406">
-      <c r="B406" s="45"/>
+      <c r="B406" s="44"/>
     </row>
     <row r="407">
-      <c r="B407" s="45"/>
+      <c r="B407" s="44"/>
     </row>
     <row r="408">
-      <c r="B408" s="45"/>
+      <c r="B408" s="44"/>
     </row>
     <row r="409">
-      <c r="B409" s="45"/>
+      <c r="B409" s="44"/>
     </row>
     <row r="410">
-      <c r="B410" s="45"/>
+      <c r="B410" s="44"/>
     </row>
     <row r="411">
-      <c r="B411" s="45"/>
+      <c r="B411" s="44"/>
     </row>
     <row r="412">
-      <c r="B412" s="45"/>
+      <c r="B412" s="44"/>
     </row>
     <row r="413">
-      <c r="B413" s="45"/>
+      <c r="B413" s="44"/>
     </row>
     <row r="414">
-      <c r="B414" s="45"/>
+      <c r="B414" s="44"/>
     </row>
     <row r="415">
-      <c r="B415" s="45"/>
+      <c r="B415" s="44"/>
     </row>
     <row r="416">
-      <c r="B416" s="45"/>
+      <c r="B416" s="44"/>
     </row>
     <row r="417">
-      <c r="B417" s="45"/>
+      <c r="B417" s="44"/>
     </row>
     <row r="418">
-      <c r="B418" s="45"/>
+      <c r="B418" s="44"/>
     </row>
     <row r="419">
-      <c r="B419" s="45"/>
+      <c r="B419" s="44"/>
     </row>
     <row r="420">
-      <c r="B420" s="45"/>
+      <c r="B420" s="44"/>
     </row>
     <row r="421">
-      <c r="B421" s="45"/>
+      <c r="B421" s="44"/>
     </row>
     <row r="422">
-      <c r="B422" s="45"/>
+      <c r="B422" s="44"/>
     </row>
     <row r="423">
-      <c r="B423" s="45"/>
+      <c r="B423" s="44"/>
     </row>
     <row r="424">
-      <c r="B424" s="45"/>
+      <c r="B424" s="44"/>
     </row>
     <row r="425">
-      <c r="B425" s="45"/>
+      <c r="B425" s="44"/>
     </row>
     <row r="426">
-      <c r="B426" s="45"/>
+      <c r="B426" s="44"/>
     </row>
     <row r="427">
-      <c r="B427" s="45"/>
+      <c r="B427" s="44"/>
     </row>
     <row r="428">
-      <c r="B428" s="45"/>
+      <c r="B428" s="44"/>
     </row>
     <row r="429">
-      <c r="B429" s="45"/>
+      <c r="B429" s="44"/>
     </row>
     <row r="430">
-      <c r="B430" s="45"/>
+      <c r="B430" s="44"/>
     </row>
     <row r="431">
-      <c r="B431" s="45"/>
+      <c r="B431" s="44"/>
     </row>
     <row r="432">
-      <c r="B432" s="45"/>
+      <c r="B432" s="44"/>
     </row>
     <row r="433">
-      <c r="B433" s="45"/>
+      <c r="B433" s="44"/>
     </row>
     <row r="434">
-      <c r="B434" s="45"/>
+      <c r="B434" s="44"/>
     </row>
     <row r="435">
-      <c r="B435" s="45"/>
+      <c r="B435" s="44"/>
     </row>
     <row r="436">
-      <c r="B436" s="45"/>
+      <c r="B436" s="44"/>
     </row>
     <row r="437">
-      <c r="B437" s="45"/>
+      <c r="B437" s="44"/>
     </row>
     <row r="438">
-      <c r="B438" s="45"/>
+      <c r="B438" s="44"/>
     </row>
     <row r="439">
-      <c r="B439" s="45"/>
+      <c r="B439" s="44"/>
     </row>
     <row r="440">
-      <c r="B440" s="45"/>
+      <c r="B440" s="44"/>
     </row>
     <row r="441">
-      <c r="B441" s="45"/>
+      <c r="B441" s="44"/>
     </row>
     <row r="442">
-      <c r="B442" s="45"/>
+      <c r="B442" s="44"/>
     </row>
     <row r="443">
-      <c r="B443" s="45"/>
+      <c r="B443" s="44"/>
     </row>
     <row r="444">
-      <c r="B444" s="45"/>
+      <c r="B444" s="44"/>
     </row>
     <row r="445">
-      <c r="B445" s="45"/>
+      <c r="B445" s="44"/>
     </row>
     <row r="446">
-      <c r="B446" s="45"/>
+      <c r="B446" s="44"/>
     </row>
     <row r="447">
-      <c r="B447" s="45"/>
+      <c r="B447" s="44"/>
     </row>
     <row r="448">
-      <c r="B448" s="45"/>
+      <c r="B448" s="44"/>
     </row>
     <row r="449">
-      <c r="B449" s="45"/>
+      <c r="B449" s="44"/>
     </row>
     <row r="450">
-      <c r="B450" s="45"/>
+      <c r="B450" s="44"/>
     </row>
     <row r="451">
-      <c r="B451" s="45"/>
+      <c r="B451" s="44"/>
     </row>
     <row r="452">
-      <c r="B452" s="45"/>
+      <c r="B452" s="44"/>
     </row>
     <row r="453">
-      <c r="B453" s="45"/>
+      <c r="B453" s="44"/>
     </row>
     <row r="454">
-      <c r="B454" s="45"/>
+      <c r="B454" s="44"/>
     </row>
     <row r="455">
-      <c r="B455" s="45"/>
+      <c r="B455" s="44"/>
     </row>
     <row r="456">
-      <c r="B456" s="45"/>
+      <c r="B456" s="44"/>
     </row>
     <row r="457">
-      <c r="B457" s="45"/>
+      <c r="B457" s="44"/>
     </row>
     <row r="458">
-      <c r="B458" s="45"/>
+      <c r="B458" s="44"/>
     </row>
     <row r="459">
-      <c r="B459" s="45"/>
+      <c r="B459" s="44"/>
     </row>
     <row r="460">
-      <c r="B460" s="45"/>
+      <c r="B460" s="44"/>
     </row>
     <row r="461">
-      <c r="B461" s="45"/>
+      <c r="B461" s="44"/>
     </row>
     <row r="462">
-      <c r="B462" s="45"/>
+      <c r="B462" s="44"/>
     </row>
     <row r="463">
-      <c r="B463" s="45"/>
+      <c r="B463" s="44"/>
     </row>
     <row r="464">
-      <c r="B464" s="45"/>
+      <c r="B464" s="44"/>
     </row>
     <row r="465">
-      <c r="B465" s="45"/>
+      <c r="B465" s="44"/>
     </row>
     <row r="466">
-      <c r="B466" s="45"/>
+      <c r="B466" s="44"/>
     </row>
     <row r="467">
-      <c r="B467" s="45"/>
+      <c r="B467" s="44"/>
     </row>
     <row r="468">
-      <c r="B468" s="45"/>
+      <c r="B468" s="44"/>
     </row>
     <row r="469">
-      <c r="B469" s="45"/>
+      <c r="B469" s="44"/>
     </row>
     <row r="470">
-      <c r="B470" s="45"/>
+      <c r="B470" s="44"/>
     </row>
     <row r="471">
-      <c r="B471" s="45"/>
+      <c r="B471" s="44"/>
     </row>
     <row r="472">
-      <c r="B472" s="45"/>
+      <c r="B472" s="44"/>
     </row>
     <row r="473">
-      <c r="B473" s="45"/>
+      <c r="B473" s="44"/>
     </row>
     <row r="474">
-      <c r="B474" s="45"/>
+      <c r="B474" s="44"/>
     </row>
     <row r="475">
-      <c r="B475" s="45"/>
+      <c r="B475" s="44"/>
     </row>
     <row r="476">
-      <c r="B476" s="45"/>
+      <c r="B476" s="44"/>
     </row>
     <row r="477">
-      <c r="B477" s="45"/>
+      <c r="B477" s="44"/>
     </row>
     <row r="478">
-      <c r="B478" s="45"/>
+      <c r="B478" s="44"/>
     </row>
     <row r="479">
-      <c r="B479" s="45"/>
+      <c r="B479" s="44"/>
     </row>
     <row r="480">
-      <c r="B480" s="45"/>
+      <c r="B480" s="44"/>
     </row>
     <row r="481">
-      <c r="B481" s="45"/>
+      <c r="B481" s="44"/>
     </row>
     <row r="482">
-      <c r="B482" s="45"/>
+      <c r="B482" s="44"/>
     </row>
     <row r="483">
-      <c r="B483" s="45"/>
+      <c r="B483" s="44"/>
     </row>
     <row r="484">
-      <c r="B484" s="45"/>
+      <c r="B484" s="44"/>
     </row>
     <row r="485">
-      <c r="B485" s="45"/>
+      <c r="B485" s="44"/>
     </row>
     <row r="486">
-      <c r="B486" s="45"/>
+      <c r="B486" s="44"/>
     </row>
     <row r="487">
-      <c r="B487" s="45"/>
+      <c r="B487" s="44"/>
     </row>
     <row r="488">
-      <c r="B488" s="45"/>
+      <c r="B488" s="44"/>
     </row>
     <row r="489">
-      <c r="B489" s="45"/>
+      <c r="B489" s="44"/>
     </row>
     <row r="490">
-      <c r="B490" s="45"/>
+      <c r="B490" s="44"/>
     </row>
     <row r="491">
-      <c r="B491" s="45"/>
+      <c r="B491" s="44"/>
     </row>
     <row r="492">
-      <c r="B492" s="45"/>
+      <c r="B492" s="44"/>
     </row>
     <row r="493">
-      <c r="B493" s="45"/>
+      <c r="B493" s="44"/>
     </row>
     <row r="494">
-      <c r="B494" s="45"/>
+      <c r="B494" s="44"/>
     </row>
     <row r="495">
-      <c r="B495" s="45"/>
+      <c r="B495" s="44"/>
     </row>
     <row r="496">
-      <c r="B496" s="45"/>
+      <c r="B496" s="44"/>
     </row>
     <row r="497">
-      <c r="B497" s="45"/>
+      <c r="B497" s="44"/>
     </row>
     <row r="498">
-      <c r="B498" s="45"/>
+      <c r="B498" s="44"/>
     </row>
     <row r="499">
-      <c r="B499" s="45"/>
+      <c r="B499" s="44"/>
     </row>
     <row r="500">
-      <c r="B500" s="45"/>
+      <c r="B500" s="44"/>
     </row>
     <row r="501">
-      <c r="B501" s="45"/>
+      <c r="B501" s="44"/>
     </row>
     <row r="502">
-      <c r="B502" s="45"/>
+      <c r="B502" s="44"/>
     </row>
     <row r="503">
-      <c r="B503" s="45"/>
+      <c r="B503" s="44"/>
     </row>
     <row r="504">
-      <c r="B504" s="45"/>
+      <c r="B504" s="44"/>
     </row>
     <row r="505">
-      <c r="B505" s="45"/>
+      <c r="B505" s="44"/>
     </row>
     <row r="506">
-      <c r="B506" s="45"/>
+      <c r="B506" s="44"/>
     </row>
     <row r="507">
-      <c r="B507" s="45"/>
+      <c r="B507" s="44"/>
     </row>
     <row r="508">
-      <c r="B508" s="45"/>
+      <c r="B508" s="44"/>
     </row>
     <row r="509">
-      <c r="B509" s="45"/>
+      <c r="B509" s="44"/>
     </row>
     <row r="510">
-      <c r="B510" s="45"/>
+      <c r="B510" s="44"/>
     </row>
     <row r="511">
-      <c r="B511" s="45"/>
+      <c r="B511" s="44"/>
     </row>
     <row r="512">
-      <c r="B512" s="45"/>
+      <c r="B512" s="44"/>
     </row>
     <row r="513">
-      <c r="B513" s="45"/>
+      <c r="B513" s="44"/>
     </row>
     <row r="514">
-      <c r="B514" s="45"/>
+      <c r="B514" s="44"/>
     </row>
     <row r="515">
-      <c r="B515" s="45"/>
+      <c r="B515" s="44"/>
     </row>
     <row r="516">
-      <c r="B516" s="45"/>
+      <c r="B516" s="44"/>
     </row>
     <row r="517">
-      <c r="B517" s="45"/>
+      <c r="B517" s="44"/>
     </row>
     <row r="518">
-      <c r="B518" s="45"/>
+      <c r="B518" s="44"/>
     </row>
     <row r="519">
-      <c r="B519" s="45"/>
+      <c r="B519" s="44"/>
     </row>
     <row r="520">
-      <c r="B520" s="45"/>
+      <c r="B520" s="44"/>
     </row>
     <row r="521">
-      <c r="B521" s="45"/>
+      <c r="B521" s="44"/>
     </row>
     <row r="522">
-      <c r="B522" s="45"/>
+      <c r="B522" s="44"/>
     </row>
     <row r="523">
-      <c r="B523" s="45"/>
+      <c r="B523" s="44"/>
     </row>
     <row r="524">
-      <c r="B524" s="45"/>
+      <c r="B524" s="44"/>
     </row>
     <row r="525">
-      <c r="B525" s="45"/>
+      <c r="B525" s="44"/>
     </row>
     <row r="526">
-      <c r="B526" s="45"/>
+      <c r="B526" s="44"/>
     </row>
     <row r="527">
-      <c r="B527" s="45"/>
+      <c r="B527" s="44"/>
     </row>
     <row r="528">
-      <c r="B528" s="45"/>
+      <c r="B528" s="44"/>
     </row>
     <row r="529">
-      <c r="B529" s="45"/>
+      <c r="B529" s="44"/>
     </row>
     <row r="530">
-      <c r="B530" s="45"/>
+      <c r="B530" s="44"/>
     </row>
     <row r="531">
-      <c r="B531" s="45"/>
+      <c r="B531" s="44"/>
     </row>
     <row r="532">
-      <c r="B532" s="45"/>
+      <c r="B532" s="44"/>
     </row>
     <row r="533">
-      <c r="B533" s="45"/>
+      <c r="B533" s="44"/>
     </row>
     <row r="534">
-      <c r="B534" s="45"/>
+      <c r="B534" s="44"/>
     </row>
     <row r="535">
-      <c r="B535" s="45"/>
+      <c r="B535" s="44"/>
     </row>
     <row r="536">
-      <c r="B536" s="45"/>
+      <c r="B536" s="44"/>
     </row>
     <row r="537">
-      <c r="B537" s="45"/>
+      <c r="B537" s="44"/>
     </row>
     <row r="538">
-      <c r="B538" s="45"/>
+      <c r="B538" s="44"/>
     </row>
     <row r="539">
-      <c r="B539" s="45"/>
+      <c r="B539" s="44"/>
     </row>
     <row r="540">
-      <c r="B540" s="45"/>
+      <c r="B540" s="44"/>
     </row>
     <row r="541">
-      <c r="B541" s="45"/>
+      <c r="B541" s="44"/>
     </row>
     <row r="542">
-      <c r="B542" s="45"/>
+      <c r="B542" s="44"/>
     </row>
     <row r="543">
-      <c r="B543" s="45"/>
+      <c r="B543" s="44"/>
     </row>
     <row r="544">
-      <c r="B544" s="45"/>
+      <c r="B544" s="44"/>
     </row>
     <row r="545">
-      <c r="B545" s="45"/>
+      <c r="B545" s="44"/>
     </row>
     <row r="546">
-      <c r="B546" s="45"/>
+      <c r="B546" s="44"/>
     </row>
     <row r="547">
-      <c r="B547" s="45"/>
+      <c r="B547" s="44"/>
     </row>
     <row r="548">
-      <c r="B548" s="45"/>
+      <c r="B548" s="44"/>
     </row>
     <row r="549">
-      <c r="B549" s="45"/>
+      <c r="B549" s="44"/>
     </row>
     <row r="550">
-      <c r="B550" s="45"/>
+      <c r="B550" s="44"/>
     </row>
     <row r="551">
-      <c r="B551" s="45"/>
+      <c r="B551" s="44"/>
     </row>
     <row r="552">
-      <c r="B552" s="45"/>
+      <c r="B552" s="44"/>
     </row>
     <row r="553">
-      <c r="B553" s="45"/>
+      <c r="B553" s="44"/>
     </row>
     <row r="554">
-      <c r="B554" s="45"/>
+      <c r="B554" s="44"/>
     </row>
     <row r="555">
-      <c r="B555" s="45"/>
+      <c r="B555" s="44"/>
     </row>
     <row r="556">
-      <c r="B556" s="45"/>
+      <c r="B556" s="44"/>
     </row>
     <row r="557">
-      <c r="B557" s="45"/>
+      <c r="B557" s="44"/>
     </row>
     <row r="558">
-      <c r="B558" s="45"/>
+      <c r="B558" s="44"/>
     </row>
     <row r="559">
-      <c r="B559" s="45"/>
+      <c r="B559" s="44"/>
     </row>
     <row r="560">
-      <c r="B560" s="45"/>
+      <c r="B560" s="44"/>
     </row>
     <row r="561">
-      <c r="B561" s="45"/>
+      <c r="B561" s="44"/>
     </row>
     <row r="562">
-      <c r="B562" s="45"/>
+      <c r="B562" s="44"/>
     </row>
     <row r="563">
-      <c r="B563" s="45"/>
+      <c r="B563" s="44"/>
     </row>
     <row r="564">
-      <c r="B564" s="45"/>
+      <c r="B564" s="44"/>
     </row>
     <row r="565">
-      <c r="B565" s="45"/>
+      <c r="B565" s="44"/>
     </row>
     <row r="566">
-      <c r="B566" s="45"/>
+      <c r="B566" s="44"/>
     </row>
     <row r="567">
-      <c r="B567" s="45"/>
+      <c r="B567" s="44"/>
     </row>
     <row r="568">
-      <c r="B568" s="45"/>
+      <c r="B568" s="44"/>
     </row>
     <row r="569">
-      <c r="B569" s="45"/>
+      <c r="B569" s="44"/>
     </row>
     <row r="570">
-      <c r="B570" s="45"/>
+      <c r="B570" s="44"/>
     </row>
     <row r="571">
-      <c r="B571" s="45"/>
+      <c r="B571" s="44"/>
     </row>
     <row r="572">
-      <c r="B572" s="45"/>
+      <c r="B572" s="44"/>
     </row>
     <row r="573">
-      <c r="B573" s="45"/>
+      <c r="B573" s="44"/>
     </row>
     <row r="574">
-      <c r="B574" s="45"/>
+      <c r="B574" s="44"/>
     </row>
     <row r="575">
-      <c r="B575" s="45"/>
+      <c r="B575" s="44"/>
     </row>
     <row r="576">
-      <c r="B576" s="45"/>
+      <c r="B576" s="44"/>
     </row>
     <row r="577">
-      <c r="B577" s="45"/>
+      <c r="B577" s="44"/>
     </row>
     <row r="578">
-      <c r="B578" s="45"/>
+      <c r="B578" s="44"/>
     </row>
     <row r="579">
-      <c r="B579" s="45"/>
+      <c r="B579" s="44"/>
     </row>
     <row r="580">
-      <c r="B580" s="45"/>
+      <c r="B580" s="44"/>
     </row>
     <row r="581">
-      <c r="B581" s="45"/>
+      <c r="B581" s="44"/>
     </row>
     <row r="582">
-      <c r="B582" s="45"/>
+      <c r="B582" s="44"/>
     </row>
     <row r="583">
-      <c r="B583" s="45"/>
+      <c r="B583" s="44"/>
     </row>
     <row r="584">
-      <c r="B584" s="45"/>
+      <c r="B584" s="44"/>
     </row>
     <row r="585">
-      <c r="B585" s="45"/>
+      <c r="B585" s="44"/>
     </row>
     <row r="586">
-      <c r="B586" s="45"/>
+      <c r="B586" s="44"/>
     </row>
     <row r="587">
-      <c r="B587" s="45"/>
+      <c r="B587" s="44"/>
     </row>
     <row r="588">
-      <c r="B588" s="45"/>
+      <c r="B588" s="44"/>
     </row>
     <row r="589">
-      <c r="B589" s="45"/>
+      <c r="B589" s="44"/>
     </row>
     <row r="590">
-      <c r="B590" s="45"/>
+      <c r="B590" s="44"/>
     </row>
     <row r="591">
-      <c r="B591" s="45"/>
+      <c r="B591" s="44"/>
     </row>
     <row r="592">
-      <c r="B592" s="45"/>
+      <c r="B592" s="44"/>
     </row>
     <row r="593">
-      <c r="B593" s="45"/>
+      <c r="B593" s="44"/>
     </row>
     <row r="594">
-      <c r="B594" s="45"/>
+      <c r="B594" s="44"/>
     </row>
     <row r="595">
-      <c r="B595" s="45"/>
+      <c r="B595" s="44"/>
     </row>
     <row r="596">
-      <c r="B596" s="45"/>
+      <c r="B596" s="44"/>
     </row>
     <row r="597">
-      <c r="B597" s="45"/>
+      <c r="B597" s="44"/>
     </row>
     <row r="598">
-      <c r="B598" s="45"/>
+      <c r="B598" s="44"/>
     </row>
     <row r="599">
-      <c r="B599" s="45"/>
+      <c r="B599" s="44"/>
     </row>
     <row r="600">
-      <c r="B600" s="45"/>
+      <c r="B600" s="44"/>
     </row>
     <row r="601">
-      <c r="B601" s="45"/>
+      <c r="B601" s="44"/>
     </row>
     <row r="602">
-      <c r="B602" s="45"/>
+      <c r="B602" s="44"/>
     </row>
     <row r="603">
-      <c r="B603" s="45"/>
+      <c r="B603" s="44"/>
     </row>
     <row r="604">
-      <c r="B604" s="45"/>
+      <c r="B604" s="44"/>
     </row>
     <row r="605">
-      <c r="B605" s="45"/>
+      <c r="B605" s="44"/>
     </row>
     <row r="606">
-      <c r="B606" s="45"/>
+      <c r="B606" s="44"/>
     </row>
     <row r="607">
-      <c r="B607" s="45"/>
+      <c r="B607" s="44"/>
     </row>
     <row r="608">
-      <c r="B608" s="45"/>
+      <c r="B608" s="44"/>
     </row>
     <row r="609">
-      <c r="B609" s="45"/>
+      <c r="B609" s="44"/>
     </row>
     <row r="610">
-      <c r="B610" s="45"/>
+      <c r="B610" s="44"/>
     </row>
     <row r="611">
-      <c r="B611" s="45"/>
+      <c r="B611" s="44"/>
     </row>
     <row r="612">
-      <c r="B612" s="45"/>
+      <c r="B612" s="44"/>
     </row>
     <row r="613">
-      <c r="B613" s="45"/>
+      <c r="B613" s="44"/>
     </row>
     <row r="614">
-      <c r="B614" s="45"/>
+      <c r="B614" s="44"/>
     </row>
     <row r="615">
-      <c r="B615" s="45"/>
+      <c r="B615" s="44"/>
     </row>
     <row r="616">
-      <c r="B616" s="45"/>
+      <c r="B616" s="44"/>
     </row>
     <row r="617">
-      <c r="B617" s="45"/>
+      <c r="B617" s="44"/>
     </row>
     <row r="618">
-      <c r="B618" s="45"/>
+      <c r="B618" s="44"/>
     </row>
     <row r="619">
-      <c r="B619" s="45"/>
+      <c r="B619" s="44"/>
     </row>
     <row r="620">
-      <c r="B620" s="45"/>
+      <c r="B620" s="44"/>
     </row>
     <row r="621">
-      <c r="B621" s="45"/>
+      <c r="B621" s="44"/>
     </row>
     <row r="622">
-      <c r="B622" s="45"/>
+      <c r="B622" s="44"/>
     </row>
     <row r="623">
-      <c r="B623" s="45"/>
+      <c r="B623" s="44"/>
     </row>
     <row r="624">
-      <c r="B624" s="45"/>
+      <c r="B624" s="44"/>
     </row>
     <row r="625">
-      <c r="B625" s="45"/>
+      <c r="B625" s="44"/>
     </row>
     <row r="626">
-      <c r="B626" s="45"/>
+      <c r="B626" s="44"/>
     </row>
     <row r="627">
-      <c r="B627" s="45"/>
+      <c r="B627" s="44"/>
     </row>
     <row r="628">
-      <c r="B628" s="45"/>
+      <c r="B628" s="44"/>
     </row>
     <row r="629">
-      <c r="B629" s="45"/>
+      <c r="B629" s="44"/>
     </row>
     <row r="630">
-      <c r="B630" s="45"/>
+      <c r="B630" s="44"/>
     </row>
     <row r="631">
-      <c r="B631" s="45"/>
+      <c r="B631" s="44"/>
     </row>
     <row r="632">
-      <c r="B632" s="45"/>
+      <c r="B632" s="44"/>
     </row>
     <row r="633">
-      <c r="B633" s="45"/>
+      <c r="B633" s="44"/>
     </row>
     <row r="634">
-      <c r="B634" s="45"/>
+      <c r="B634" s="44"/>
     </row>
     <row r="635">
-      <c r="B635" s="45"/>
+      <c r="B635" s="44"/>
     </row>
     <row r="636">
-      <c r="B636" s="45"/>
+      <c r="B636" s="44"/>
     </row>
     <row r="637">
-      <c r="B637" s="45"/>
+      <c r="B637" s="44"/>
     </row>
     <row r="638">
-      <c r="B638" s="45"/>
+      <c r="B638" s="44"/>
     </row>
     <row r="639">
-      <c r="B639" s="45"/>
+      <c r="B639" s="44"/>
     </row>
     <row r="640">
-      <c r="B640" s="45"/>
+      <c r="B640" s="44"/>
     </row>
     <row r="641">
-      <c r="B641" s="45"/>
+      <c r="B641" s="44"/>
     </row>
     <row r="642">
-      <c r="B642" s="45"/>
+      <c r="B642" s="44"/>
     </row>
     <row r="643">
-      <c r="B643" s="45"/>
+      <c r="B643" s="44"/>
     </row>
     <row r="644">
-      <c r="B644" s="45"/>
+      <c r="B644" s="44"/>
     </row>
     <row r="645">
-      <c r="B645" s="45"/>
+      <c r="B645" s="44"/>
     </row>
     <row r="646">
-      <c r="B646" s="45"/>
+      <c r="B646" s="44"/>
     </row>
     <row r="647">
-      <c r="B647" s="45"/>
+      <c r="B647" s="44"/>
     </row>
     <row r="648">
-      <c r="B648" s="45"/>
+      <c r="B648" s="44"/>
     </row>
     <row r="649">
-      <c r="B649" s="45"/>
+      <c r="B649" s="44"/>
     </row>
     <row r="650">
-      <c r="B650" s="45"/>
+      <c r="B650" s="44"/>
     </row>
     <row r="651">
-      <c r="B651" s="45"/>
+      <c r="B651" s="44"/>
     </row>
     <row r="652">
-      <c r="B652" s="45"/>
+      <c r="B652" s="44"/>
     </row>
     <row r="653">
-      <c r="B653" s="45"/>
+      <c r="B653" s="44"/>
     </row>
     <row r="654">
-      <c r="B654" s="45"/>
+      <c r="B654" s="44"/>
     </row>
     <row r="655">
-      <c r="B655" s="45"/>
+      <c r="B655" s="44"/>
     </row>
     <row r="656">
-      <c r="B656" s="45"/>
+      <c r="B656" s="44"/>
     </row>
     <row r="657">
-      <c r="B657" s="45"/>
+      <c r="B657" s="44"/>
     </row>
     <row r="658">
-      <c r="B658" s="45"/>
+      <c r="B658" s="44"/>
     </row>
     <row r="659">
-      <c r="B659" s="45"/>
+      <c r="B659" s="44"/>
     </row>
     <row r="660">
-      <c r="B660" s="45"/>
+      <c r="B660" s="44"/>
     </row>
     <row r="661">
-      <c r="B661" s="45"/>
+      <c r="B661" s="44"/>
     </row>
     <row r="662">
-      <c r="B662" s="45"/>
+      <c r="B662" s="44"/>
     </row>
     <row r="663">
-      <c r="B663" s="45"/>
+      <c r="B663" s="44"/>
     </row>
     <row r="664">
-      <c r="B664" s="45"/>
+      <c r="B664" s="44"/>
     </row>
     <row r="665">
-      <c r="B665" s="45"/>
+      <c r="B665" s="44"/>
     </row>
     <row r="666">
-      <c r="B666" s="45"/>
+      <c r="B666" s="44"/>
     </row>
     <row r="667">
-      <c r="B667" s="45"/>
+      <c r="B667" s="44"/>
     </row>
     <row r="668">
-      <c r="B668" s="45"/>
+      <c r="B668" s="44"/>
     </row>
     <row r="669">
-      <c r="B669" s="45"/>
+      <c r="B669" s="44"/>
     </row>
     <row r="670">
-      <c r="B670" s="45"/>
+      <c r="B670" s="44"/>
     </row>
     <row r="671">
-      <c r="B671" s="45"/>
+      <c r="B671" s="44"/>
     </row>
     <row r="672">
-      <c r="B672" s="45"/>
+      <c r="B672" s="44"/>
     </row>
     <row r="673">
-      <c r="B673" s="45"/>
+      <c r="B673" s="44"/>
     </row>
     <row r="674">
-      <c r="B674" s="45"/>
+      <c r="B674" s="44"/>
     </row>
     <row r="675">
-      <c r="B675" s="45"/>
+      <c r="B675" s="44"/>
     </row>
     <row r="676">
-      <c r="B676" s="45"/>
+      <c r="B676" s="44"/>
     </row>
     <row r="677">
-      <c r="B677" s="45"/>
+      <c r="B677" s="44"/>
     </row>
     <row r="678">
-      <c r="B678" s="45"/>
+      <c r="B678" s="44"/>
     </row>
     <row r="679">
-      <c r="B679" s="45"/>
+      <c r="B679" s="44"/>
     </row>
     <row r="680">
-      <c r="B680" s="45"/>
+      <c r="B680" s="44"/>
     </row>
     <row r="681">
-      <c r="B681" s="45"/>
+      <c r="B681" s="44"/>
     </row>
     <row r="682">
-      <c r="B682" s="45"/>
+      <c r="B682" s="44"/>
     </row>
     <row r="683">
-      <c r="B683" s="45"/>
+      <c r="B683" s="44"/>
     </row>
     <row r="684">
-      <c r="B684" s="45"/>
+      <c r="B684" s="44"/>
     </row>
     <row r="685">
-      <c r="B685" s="45"/>
+      <c r="B685" s="44"/>
     </row>
     <row r="686">
-      <c r="B686" s="45"/>
+      <c r="B686" s="44"/>
     </row>
     <row r="687">
-      <c r="B687" s="45"/>
+      <c r="B687" s="44"/>
     </row>
     <row r="688">
-      <c r="B688" s="45"/>
+      <c r="B688" s="44"/>
     </row>
     <row r="689">
-      <c r="B689" s="45"/>
+      <c r="B689" s="44"/>
     </row>
     <row r="690">
-      <c r="B690" s="45"/>
+      <c r="B690" s="44"/>
     </row>
     <row r="691">
-      <c r="B691" s="45"/>
+      <c r="B691" s="44"/>
     </row>
     <row r="692">
-      <c r="B692" s="45"/>
+      <c r="B692" s="44"/>
     </row>
     <row r="693">
-      <c r="B693" s="45"/>
+      <c r="B693" s="44"/>
     </row>
     <row r="694">
-      <c r="B694" s="45"/>
+      <c r="B694" s="44"/>
     </row>
     <row r="695">
-      <c r="B695" s="45"/>
+      <c r="B695" s="44"/>
     </row>
     <row r="696">
-      <c r="B696" s="45"/>
+      <c r="B696" s="44"/>
     </row>
     <row r="697">
-      <c r="B697" s="45"/>
+      <c r="B697" s="44"/>
     </row>
     <row r="698">
-      <c r="B698" s="45"/>
+      <c r="B698" s="44"/>
     </row>
     <row r="699">
-      <c r="B699" s="45"/>
+      <c r="B699" s="44"/>
     </row>
     <row r="700">
-      <c r="B700" s="45"/>
+      <c r="B700" s="44"/>
     </row>
     <row r="701">
-      <c r="B701" s="45"/>
+      <c r="B701" s="44"/>
     </row>
     <row r="702">
-      <c r="B702" s="45"/>
+      <c r="B702" s="44"/>
     </row>
     <row r="703">
-      <c r="B703" s="45"/>
+      <c r="B703" s="44"/>
     </row>
     <row r="704">
-      <c r="B704" s="45"/>
+      <c r="B704" s="44"/>
     </row>
     <row r="705">
-      <c r="B705" s="45"/>
+      <c r="B705" s="44"/>
     </row>
     <row r="706">
-      <c r="B706" s="45"/>
+      <c r="B706" s="44"/>
     </row>
     <row r="707">
-      <c r="B707" s="45"/>
+      <c r="B707" s="44"/>
     </row>
     <row r="708">
-      <c r="B708" s="45"/>
+      <c r="B708" s="44"/>
     </row>
     <row r="709">
-      <c r="B709" s="45"/>
+      <c r="B709" s="44"/>
     </row>
     <row r="710">
-      <c r="B710" s="45"/>
+      <c r="B710" s="44"/>
     </row>
     <row r="711">
-      <c r="B711" s="45"/>
+      <c r="B711" s="44"/>
     </row>
     <row r="712">
-      <c r="B712" s="45"/>
+      <c r="B712" s="44"/>
     </row>
     <row r="713">
-      <c r="B713" s="45"/>
+      <c r="B713" s="44"/>
     </row>
     <row r="714">
-      <c r="B714" s="45"/>
+      <c r="B714" s="44"/>
     </row>
     <row r="715">
-      <c r="B715" s="45"/>
+      <c r="B715" s="44"/>
     </row>
     <row r="716">
-      <c r="B716" s="45"/>
+      <c r="B716" s="44"/>
     </row>
     <row r="717">
-      <c r="B717" s="45"/>
+      <c r="B717" s="44"/>
     </row>
     <row r="718">
-      <c r="B718" s="45"/>
+      <c r="B718" s="44"/>
     </row>
     <row r="719">
-      <c r="B719" s="45"/>
+      <c r="B719" s="44"/>
     </row>
     <row r="720">
-      <c r="B720" s="45"/>
+      <c r="B720" s="44"/>
     </row>
     <row r="721">
-      <c r="B721" s="45"/>
+      <c r="B721" s="44"/>
     </row>
     <row r="722">
-      <c r="B722" s="45"/>
+      <c r="B722" s="44"/>
     </row>
     <row r="723">
-      <c r="B723" s="45"/>
+      <c r="B723" s="44"/>
     </row>
     <row r="724">
-      <c r="B724" s="45"/>
+      <c r="B724" s="44"/>
     </row>
     <row r="725">
-      <c r="B725" s="45"/>
+      <c r="B725" s="44"/>
     </row>
     <row r="726">
-      <c r="B726" s="45"/>
+      <c r="B726" s="44"/>
     </row>
     <row r="727">
-      <c r="B727" s="45"/>
+      <c r="B727" s="44"/>
     </row>
     <row r="728">
-      <c r="B728" s="45"/>
+      <c r="B728" s="44"/>
     </row>
     <row r="729">
-      <c r="B729" s="45"/>
+      <c r="B729" s="44"/>
     </row>
     <row r="730">
-      <c r="B730" s="45"/>
+      <c r="B730" s="44"/>
     </row>
     <row r="731">
-      <c r="B731" s="45"/>
+      <c r="B731" s="44"/>
     </row>
     <row r="732">
-      <c r="B732" s="45"/>
+      <c r="B732" s="44"/>
     </row>
     <row r="733">
-      <c r="B733" s="45"/>
+      <c r="B733" s="44"/>
     </row>
     <row r="734">
-      <c r="B734" s="45"/>
+      <c r="B734" s="44"/>
     </row>
     <row r="735">
-      <c r="B735" s="45"/>
+      <c r="B735" s="44"/>
     </row>
     <row r="736">
-      <c r="B736" s="45"/>
+      <c r="B736" s="44"/>
     </row>
     <row r="737">
-      <c r="B737" s="45"/>
+      <c r="B737" s="44"/>
     </row>
     <row r="738">
-      <c r="B738" s="45"/>
+      <c r="B738" s="44"/>
     </row>
     <row r="739">
-      <c r="B739" s="45"/>
+      <c r="B739" s="44"/>
     </row>
     <row r="740">
-      <c r="B740" s="45"/>
+      <c r="B740" s="44"/>
     </row>
     <row r="741">
-      <c r="B741" s="45"/>
+      <c r="B741" s="44"/>
     </row>
     <row r="742">
-      <c r="B742" s="45"/>
+      <c r="B742" s="44"/>
     </row>
     <row r="743">
-      <c r="B743" s="45"/>
+      <c r="B743" s="44"/>
     </row>
     <row r="744">
-      <c r="B744" s="45"/>
+      <c r="B744" s="44"/>
     </row>
     <row r="745">
-      <c r="B745" s="45"/>
+      <c r="B745" s="44"/>
     </row>
     <row r="746">
-      <c r="B746" s="45"/>
+      <c r="B746" s="44"/>
     </row>
     <row r="747">
-      <c r="B747" s="45"/>
+      <c r="B747" s="44"/>
     </row>
     <row r="748">
-      <c r="B748" s="45"/>
+      <c r="B748" s="44"/>
     </row>
     <row r="749">
-      <c r="B749" s="45"/>
+      <c r="B749" s="44"/>
     </row>
     <row r="750">
-      <c r="B750" s="45"/>
+      <c r="B750" s="44"/>
     </row>
     <row r="751">
-      <c r="B751" s="45"/>
+      <c r="B751" s="44"/>
     </row>
     <row r="752">
-      <c r="B752" s="45"/>
+      <c r="B752" s="44"/>
     </row>
     <row r="753">
-      <c r="B753" s="45"/>
+      <c r="B753" s="44"/>
     </row>
     <row r="754">
-      <c r="B754" s="45"/>
+      <c r="B754" s="44"/>
     </row>
     <row r="755">
-      <c r="B755" s="45"/>
+      <c r="B755" s="44"/>
     </row>
     <row r="756">
-      <c r="B756" s="45"/>
+      <c r="B756" s="44"/>
     </row>
     <row r="757">
-      <c r="B757" s="45"/>
+      <c r="B757" s="44"/>
     </row>
     <row r="758">
-      <c r="B758" s="45"/>
+      <c r="B758" s="44"/>
     </row>
     <row r="759">
-      <c r="B759" s="45"/>
+      <c r="B759" s="44"/>
     </row>
     <row r="760">
-      <c r="B760" s="45"/>
+      <c r="B760" s="44"/>
     </row>
     <row r="761">
-      <c r="B761" s="45"/>
+      <c r="B761" s="44"/>
     </row>
     <row r="762">
-      <c r="B762" s="45"/>
+      <c r="B762" s="44"/>
     </row>
     <row r="763">
-      <c r="B763" s="45"/>
+      <c r="B763" s="44"/>
     </row>
     <row r="764">
-      <c r="B764" s="45"/>
+      <c r="B764" s="44"/>
     </row>
     <row r="765">
-      <c r="B765" s="45"/>
+      <c r="B765" s="44"/>
     </row>
     <row r="766">
-      <c r="B766" s="45"/>
+      <c r="B766" s="44"/>
     </row>
     <row r="767">
-      <c r="B767" s="45"/>
+      <c r="B767" s="44"/>
     </row>
     <row r="768">
-      <c r="B768" s="45"/>
+      <c r="B768" s="44"/>
     </row>
     <row r="769">
-      <c r="B769" s="45"/>
+      <c r="B769" s="44"/>
     </row>
     <row r="770">
-      <c r="B770" s="45"/>
+      <c r="B770" s="44"/>
     </row>
     <row r="771">
-      <c r="B771" s="45"/>
+      <c r="B771" s="44"/>
     </row>
     <row r="772">
-      <c r="B772" s="45"/>
+      <c r="B772" s="44"/>
     </row>
     <row r="773">
-      <c r="B773" s="45"/>
+      <c r="B773" s="44"/>
     </row>
     <row r="774">
-      <c r="B774" s="45"/>
+      <c r="B774" s="44"/>
     </row>
     <row r="775">
-      <c r="B775" s="45"/>
+      <c r="B775" s="44"/>
     </row>
     <row r="776">
-      <c r="B776" s="45"/>
+      <c r="B776" s="44"/>
     </row>
     <row r="777">
-      <c r="B777" s="45"/>
+      <c r="B777" s="44"/>
     </row>
     <row r="778">
-      <c r="B778" s="45"/>
+      <c r="B778" s="44"/>
     </row>
     <row r="779">
-      <c r="B779" s="45"/>
+      <c r="B779" s="44"/>
     </row>
     <row r="780">
-      <c r="B780" s="45"/>
+      <c r="B780" s="44"/>
     </row>
     <row r="781">
-      <c r="B781" s="45"/>
+      <c r="B781" s="44"/>
     </row>
     <row r="782">
-      <c r="B782" s="45"/>
+      <c r="B782" s="44"/>
     </row>
     <row r="783">
-      <c r="B783" s="45"/>
+      <c r="B783" s="44"/>
     </row>
     <row r="784">
-      <c r="B784" s="45"/>
+      <c r="B784" s="44"/>
     </row>
     <row r="785">
-      <c r="B785" s="45"/>
+      <c r="B785" s="44"/>
     </row>
     <row r="786">
-      <c r="B786" s="45"/>
+      <c r="B786" s="44"/>
     </row>
     <row r="787">
-      <c r="B787" s="45"/>
+      <c r="B787" s="44"/>
     </row>
     <row r="788">
-      <c r="B788" s="45"/>
+      <c r="B788" s="44"/>
     </row>
     <row r="789">
-      <c r="B789" s="45"/>
+      <c r="B789" s="44"/>
     </row>
     <row r="790">
-      <c r="B790" s="45"/>
+      <c r="B790" s="44"/>
     </row>
     <row r="791">
-      <c r="B791" s="45"/>
+      <c r="B791" s="44"/>
     </row>
     <row r="792">
-      <c r="B792" s="45"/>
+      <c r="B792" s="44"/>
     </row>
     <row r="793">
-      <c r="B793" s="45"/>
+      <c r="B793" s="44"/>
     </row>
     <row r="794">
-      <c r="B794" s="45"/>
+      <c r="B794" s="44"/>
     </row>
     <row r="795">
-      <c r="B795" s="45"/>
+      <c r="B795" s="44"/>
     </row>
     <row r="796">
-      <c r="B796" s="45"/>
+      <c r="B796" s="44"/>
     </row>
     <row r="797">
-      <c r="B797" s="45"/>
+      <c r="B797" s="44"/>
     </row>
     <row r="798">
-      <c r="B798" s="45"/>
+      <c r="B798" s="44"/>
     </row>
     <row r="799">
-      <c r="B799" s="45"/>
+      <c r="B799" s="44"/>
     </row>
     <row r="800">
-      <c r="B800" s="45"/>
+      <c r="B800" s="44"/>
     </row>
     <row r="801">
-      <c r="B801" s="45"/>
+      <c r="B801" s="44"/>
     </row>
     <row r="802">
-      <c r="B802" s="45"/>
+      <c r="B802" s="44"/>
     </row>
     <row r="803">
-      <c r="B803" s="45"/>
+      <c r="B803" s="44"/>
     </row>
     <row r="804">
-      <c r="B804" s="45"/>
+      <c r="B804" s="44"/>
     </row>
     <row r="805">
-      <c r="B805" s="45"/>
+      <c r="B805" s="44"/>
     </row>
     <row r="806">
-      <c r="B806" s="45"/>
+      <c r="B806" s="44"/>
     </row>
     <row r="807">
-      <c r="B807" s="45"/>
+      <c r="B807" s="44"/>
     </row>
     <row r="808">
-      <c r="B808" s="45"/>
+      <c r="B808" s="44"/>
     </row>
     <row r="809">
-      <c r="B809" s="45"/>
+      <c r="B809" s="44"/>
     </row>
     <row r="810">
-      <c r="B810" s="45"/>
+      <c r="B810" s="44"/>
     </row>
     <row r="811">
-      <c r="B811" s="45"/>
+      <c r="B811" s="44"/>
     </row>
     <row r="812">
-      <c r="B812" s="45"/>
+      <c r="B812" s="44"/>
     </row>
     <row r="813">
-      <c r="B813" s="45"/>
+      <c r="B813" s="44"/>
     </row>
     <row r="814">
-      <c r="B814" s="45"/>
+      <c r="B814" s="44"/>
     </row>
     <row r="815">
-      <c r="B815" s="45"/>
-    </row>
-    <row r="816">
-      <c r="B816" s="45"/>
-    </row>
-    <row r="817">
-      <c r="B817" s="45"/>
-    </row>
-    <row r="818">
-      <c r="B818" s="45"/>
+      <c r="B815" s="44"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/api/extracted_metrics.xlsx
+++ b/api/extracted_metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viniciuslunardifarias/projects/ufsc/tcc/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F42B02-7D35-0C47-9171-2C45D6FDAFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05DF671-2D0F-8744-BDCD-3C2B365F1633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="20000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
